--- a/src/main/resources/tasks/Russian.xlsx
+++ b/src/main/resources/tasks/Russian.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="387">
   <si>
     <t xml:space="preserve">Задание</t>
   </si>
@@ -1051,6 +1051,9 @@
     <t xml:space="preserve">ужен</t>
   </si>
   <si>
+    <t xml:space="preserve">ушин</t>
+  </si>
+  <si>
     <t xml:space="preserve">улица</t>
   </si>
   <si>
@@ -1114,6 +1117,9 @@
     <t xml:space="preserve">што</t>
   </si>
   <si>
+    <t xml:space="preserve">щто</t>
+  </si>
+  <si>
     <t xml:space="preserve">чувствовать</t>
   </si>
   <si>
@@ -1150,10 +1156,22 @@
     <t xml:space="preserve">ягада</t>
   </si>
   <si>
+    <t xml:space="preserve">игода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">угода</t>
+  </si>
+  <si>
     <t xml:space="preserve">язык</t>
   </si>
   <si>
     <t xml:space="preserve">изык</t>
+  </si>
+  <si>
+    <t xml:space="preserve">языг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">язын</t>
   </si>
   <si>
     <t xml:space="preserve">январь</t>
@@ -1279,12 +1297,12 @@
   <dimension ref="A1:AMJ130"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
+      <selection pane="bottomLeft" activeCell="D117" activeCellId="0" sqref="D117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.63"/>
@@ -2900,16 +2918,19 @@
       <c r="C116" s="0" t="s">
         <v>342</v>
       </c>
+      <c r="D116" s="0" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2917,10 +2938,10 @@
         <v>3</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2928,10 +2949,10 @@
         <v>3</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2939,16 +2960,16 @@
         <v>3</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D120" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E120" s="0" t="s">
         <v>351</v>
-      </c>
-      <c r="E120" s="0" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2956,10 +2977,10 @@
         <v>3</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2967,16 +2988,16 @@
         <v>3</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2984,16 +3005,16 @@
         <v>3</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3001,10 +3022,13 @@
         <v>3</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3012,16 +3036,16 @@
         <v>3</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3029,10 +3053,10 @@
         <v>3</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3040,16 +3064,16 @@
         <v>3</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3057,10 +3081,16 @@
         <v>3</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3068,10 +3098,16 @@
         <v>3</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>377</v>
+        <v>381</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3079,13 +3115,13 @@
         <v>3</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
